--- a/resources/experiment 2/metrics/R2/incidence/Retinopatía de fondo (INC).xlsx
+++ b/resources/experiment 2/metrics/R2/incidence/Retinopatía de fondo (INC).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9933409454288727</v>
+        <v>0.9997520920247163</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9933409454288727</v>
+        <v>0.9996861250796784</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9933409454288727</v>
+        <v>0.9810990003356123</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9997816673632757</v>
+        <v>0.9995798436907105</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9997816601197261</v>
+        <v>0.9995324110764762</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9997816601197261</v>
+        <v>0.9967430691575127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8933435711087903</v>
+        <v>0.9998616035638871</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8933435711087903</v>
+        <v>0.9998469115744985</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8933435711087903</v>
+        <v>0.9996428616360841</v>
       </c>
     </row>
   </sheetData>
